--- a/data/hd/items/items_json_edit_assist.xlsx
+++ b/data/hd/items/items_json_edit_assist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rucdk-my.sharepoint.com/personal/magnuha_ruc_dk/Documents/Documents/GitHub/d2-nd-jexmod/data/hd/items/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{021FB881-9F2D-433C-86BC-EBD06EE97671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B16AF850-EC18-412A-B7A2-4695D4B63F2D}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{021FB881-9F2D-433C-86BC-EBD06EE97671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F37327D-B5AC-4F19-BB0C-4E72E1724C46}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{4E40BB80-C711-41B6-B080-B20F7E1C8A69}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4E40BB80-C711-41B6-B080-B20F7E1C8A69}"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="7" r:id="rId1"/>
@@ -190,15 +190,6 @@
     <t>nb3</t>
   </si>
   <si>
-    <t>ob1</t>
-  </si>
-  <si>
-    <t>ob2</t>
-  </si>
-  <si>
-    <t>ob3</t>
-  </si>
-  <si>
     <t>pb1</t>
   </si>
   <si>
@@ -289,42 +280,6 @@
     <t>aa9</t>
   </si>
   <si>
-    <t>ba1</t>
-  </si>
-  <si>
-    <t>ba2</t>
-  </si>
-  <si>
-    <t>ba3</t>
-  </si>
-  <si>
-    <t>ba4</t>
-  </si>
-  <si>
-    <t>ba5</t>
-  </si>
-  <si>
-    <t>ba6</t>
-  </si>
-  <si>
-    <t>ba7</t>
-  </si>
-  <si>
-    <t>ba8</t>
-  </si>
-  <si>
-    <t>ba9</t>
-  </si>
-  <si>
-    <t>ca1</t>
-  </si>
-  <si>
-    <t>ca2</t>
-  </si>
-  <si>
-    <t>ca3</t>
-  </si>
-  <si>
     <t>aa0</t>
   </si>
   <si>
@@ -332,6 +287,51 @@
   </si>
   <si>
     <t xml:space="preserve">  { "</t>
+  </si>
+  <si>
+    <t>zb1</t>
+  </si>
+  <si>
+    <t>zb2</t>
+  </si>
+  <si>
+    <t>zb3</t>
+  </si>
+  <si>
+    <t>ac1</t>
+  </si>
+  <si>
+    <t>ac2</t>
+  </si>
+  <si>
+    <t>ac3</t>
+  </si>
+  <si>
+    <t>ac4</t>
+  </si>
+  <si>
+    <t>ac5</t>
+  </si>
+  <si>
+    <t>ac6</t>
+  </si>
+  <si>
+    <t>ac7</t>
+  </si>
+  <si>
+    <t>ac8</t>
+  </si>
+  <si>
+    <t>ac9</t>
+  </si>
+  <si>
+    <t>ad1</t>
+  </si>
+  <si>
+    <t>ad2</t>
+  </si>
+  <si>
+    <t>ad3</t>
   </si>
 </sst>
 </file>
@@ -367,8 +367,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28640A19-9BFC-49A0-9A4A-1C2CC136A2D7}">
   <dimension ref="A1:A1732"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A88" sqref="A1:A88"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection sqref="A1:A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1004,19 +1005,19 @@
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>json!A43&amp;keys!A43&amp;json!B43</f>
-        <v xml:space="preserve">  { "ob1": { "asset": "charm/charm_small" } },</v>
+        <v xml:space="preserve">  { "zb1": { "asset": "charm/charm_small" } },</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>json!A44&amp;keys!A44&amp;json!B44</f>
-        <v xml:space="preserve">  { "ob2": { "asset": "charm/charm_small" } },</v>
+        <v xml:space="preserve">  { "zb2": { "asset": "charm/charm_small" } },</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>json!A45&amp;keys!A45&amp;json!B45</f>
-        <v xml:space="preserve">  { "ob3": { "asset": "charm/charm_small" } },</v>
+        <v xml:space="preserve">  { "zb3": { "asset": "charm/charm_small" } },</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
@@ -1200,7 +1201,7 @@
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" t="str">
+      <c r="A76" s="1" t="str">
         <f>json!A76&amp;keys!A76&amp;json!B76</f>
         <v xml:space="preserve">  { "aa9": { "asset": "charm/charm_small" } },</v>
       </c>
@@ -1208,73 +1209,73 @@
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
         <f>json!A77&amp;keys!A77&amp;json!B77</f>
-        <v xml:space="preserve">  { "ba1": { "asset": "charm/charm_small" } },</v>
+        <v xml:space="preserve">  { "ac1": { "asset": "charm/charm_small" } },</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="str">
         <f>json!A78&amp;keys!A78&amp;json!B78</f>
-        <v xml:space="preserve">  { "ba2": { "asset": "charm/charm_small" } },</v>
+        <v xml:space="preserve">  { "ac2": { "asset": "charm/charm_small" } },</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="str">
         <f>json!A79&amp;keys!A79&amp;json!B79</f>
-        <v xml:space="preserve">  { "ba3": { "asset": "charm/charm_small" } },</v>
+        <v xml:space="preserve">  { "ac3": { "asset": "charm/charm_small" } },</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="str">
         <f>json!A80&amp;keys!A80&amp;json!B80</f>
-        <v xml:space="preserve">  { "ba4": { "asset": "charm/charm_small" } },</v>
+        <v xml:space="preserve">  { "ac4": { "asset": "charm/charm_small" } },</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="str">
         <f>json!A81&amp;keys!A81&amp;json!B81</f>
-        <v xml:space="preserve">  { "ba5": { "asset": "charm/charm_small" } },</v>
+        <v xml:space="preserve">  { "ac5": { "asset": "charm/charm_small" } },</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="str">
         <f>json!A82&amp;keys!A82&amp;json!B82</f>
-        <v xml:space="preserve">  { "ba6": { "asset": "charm/charm_small" } },</v>
+        <v xml:space="preserve">  { "ac6": { "asset": "charm/charm_small" } },</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="str">
         <f>json!A83&amp;keys!A83&amp;json!B83</f>
-        <v xml:space="preserve">  { "ba7": { "asset": "charm/charm_small" } },</v>
+        <v xml:space="preserve">  { "ac7": { "asset": "charm/charm_small" } },</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="str">
         <f>json!A84&amp;keys!A84&amp;json!B84</f>
-        <v xml:space="preserve">  { "ba8": { "asset": "charm/charm_small" } },</v>
+        <v xml:space="preserve">  { "ac8": { "asset": "charm/charm_small" } },</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="str">
         <f>json!A85&amp;keys!A85&amp;json!B85</f>
-        <v xml:space="preserve">  { "ba9": { "asset": "charm/charm_small" } },</v>
+        <v xml:space="preserve">  { "ac9": { "asset": "charm/charm_small" } },</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="str">
         <f>json!A86&amp;keys!A86&amp;json!B86</f>
-        <v xml:space="preserve">  { "ca1": { "asset": "charm/charm_small" } },</v>
+        <v xml:space="preserve">  { "ad1": { "asset": "charm/charm_small" } },</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="str">
         <f>json!A87&amp;keys!A87&amp;json!B87</f>
-        <v xml:space="preserve">  { "ca2": { "asset": "charm/charm_small" } },</v>
+        <v xml:space="preserve">  { "ad2": { "asset": "charm/charm_small" } },</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="str">
         <f>json!A88&amp;keys!A88&amp;json!B88</f>
-        <v xml:space="preserve">  { "ca3": { "asset": "charm/charm_small" } },</v>
+        <v xml:space="preserve">  { "ad3": { "asset": "charm/charm_small" } },</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
@@ -1375,6 +1376,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1382,7 +1384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BB0889-2B3A-4A4F-8549-D2598D4C25A3}">
   <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+    <sheetView topLeftCell="A68" workbookViewId="0">
       <selection sqref="A1:A88"/>
     </sheetView>
   </sheetViews>
@@ -1390,706 +1392,706 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B56" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2101,7 +2103,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1A45C3-3975-437A-B07E-CC74E1796837}">
   <dimension ref="A1:A88"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -2317,232 +2321,232 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
